--- a/data/zenodo_ivan/extraction/CHE_ext_hydro.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_hydro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B4204-76B1-4044-86C8-235840E48D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7013FF-1FD7-E94D-B394-E3B0D5CB28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>proven_reserves</t>
   </si>
   <si>
-    <t>cost_variable</t>
-  </si>
-  <si>
     <t>CHE_ext_hydro.xlsx</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -654,16 +654,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -685,7 +685,7 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -708,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -760,10 +760,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -786,10 +786,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -812,10 +812,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -838,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -864,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -890,10 +890,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -916,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -942,10 +942,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -957,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -968,10 +968,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -994,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1046,10 +1046,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1072,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1124,10 +1124,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1176,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1228,10 +1228,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1280,10 +1280,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1306,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1332,10 +1332,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1358,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1384,10 +1384,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1410,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1436,10 +1436,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1462,10 +1462,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.2">

--- a/data/zenodo_ivan/extraction/CHE_ext_hydro.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_hydro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7013FF-1FD7-E94D-B394-E3B0D5CB28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4383C6AA-A41B-784F-A4DB-A5B4F0031EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$573</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>cost_variable_om</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -553,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,10 +663,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -677,16 +683,19 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -696,12 +705,15 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="2"/>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -710,24 +722,13 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -743,7 +744,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -769,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -795,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -821,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -847,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -873,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -899,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -925,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -951,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -977,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1003,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1029,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1055,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1081,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1107,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1133,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1159,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1185,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1211,7 +1212,7 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1237,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1263,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1289,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1315,7 +1316,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1341,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1367,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1393,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1419,7 +1420,7 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1445,7 +1446,7 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1471,23 +1472,49 @@
         <v>22</v>
       </c>
       <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K152" s="2"/>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L572" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L573" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
